--- a/TemperatureData/St.Mikes01/1101_2024.xlsx
+++ b/TemperatureData/St.Mikes01/1101_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/St.Mikes01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Mikes01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EA0E3F-65EB-40E6-B091-FF391B60D19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB2D703-4141-45C0-9F0F-65062BCE4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{5394C338-125E-4ECB-8F54-004C0D00CDC1}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5394C338-125E-4ECB-8F54-004C0D00CDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="1101_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Plot Title: St. Mikes 1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422115)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger was placed at St. Mikes -01</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>#Logger was out of water when collected</t>
+  </si>
+  <si>
+    <t>#All records after retrieval time were deleted</t>
   </si>
 </sst>
 </file>
@@ -933,9 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC9F035-70C6-4DCD-8FD4-94B8A9EF9FDB}">
-  <dimension ref="A1:I6262"/>
+  <dimension ref="A1:I6249"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6221" workbookViewId="0">
+      <selection activeCell="B6234" sqref="B6234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -88434,182 +88436,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6250">
-        <v>6248</v>
-      </c>
-      <c r="B6250" s="1">
-        <v>45502.572916666664</v>
-      </c>
-      <c r="C6250">
-        <v>94.253</v>
-      </c>
-      <c r="D6250">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6251">
-        <v>6249</v>
-      </c>
-      <c r="B6251" s="1">
-        <v>45502.583333333336</v>
-      </c>
-      <c r="C6251">
-        <v>88.465999999999994</v>
-      </c>
-      <c r="D6251">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6252">
-        <v>6250</v>
-      </c>
-      <c r="B6252" s="1">
-        <v>45502.59375</v>
-      </c>
-      <c r="C6252">
-        <v>84.834000000000003</v>
-      </c>
-      <c r="D6252">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6253">
-        <v>6251</v>
-      </c>
-      <c r="B6253" s="1">
-        <v>45502.604166666664</v>
-      </c>
-      <c r="C6253">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D6253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6254">
-        <v>6252</v>
-      </c>
-      <c r="B6254" s="1">
-        <v>45502.614583333336</v>
-      </c>
-      <c r="C6254">
-        <v>81.620999999999995</v>
-      </c>
-      <c r="D6254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6255">
-        <v>6253</v>
-      </c>
-      <c r="B6255" s="1">
-        <v>45502.625</v>
-      </c>
-      <c r="C6255">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D6255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6256">
-        <v>6254</v>
-      </c>
-      <c r="B6256" s="1">
-        <v>45502.635416666664</v>
-      </c>
-      <c r="C6256">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D6256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6257">
-        <v>6255</v>
-      </c>
-      <c r="B6257" s="1">
-        <v>45502.645833333336</v>
-      </c>
-      <c r="C6257">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D6257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6258">
-        <v>6256</v>
-      </c>
-      <c r="B6258" s="1">
-        <v>45502.646585648145</v>
-      </c>
-      <c r="E6258" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6259">
-        <v>6257</v>
-      </c>
-      <c r="B6259" s="1">
-        <v>45502.65587962963</v>
-      </c>
-      <c r="F6259" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6260">
-        <v>6258</v>
-      </c>
-      <c r="B6260" s="1">
-        <v>45502.655972222223</v>
-      </c>
-      <c r="E6260" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6260" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6261">
-        <v>6259</v>
-      </c>
-      <c r="B6261" s="1">
-        <v>45502.65625</v>
-      </c>
-      <c r="C6261">
-        <v>70.137</v>
-      </c>
-      <c r="D6261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6262">
-        <v>6260</v>
-      </c>
-      <c r="B6262" s="1">
-        <v>45502.656481481485</v>
-      </c>
-      <c r="H6262" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6262" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -88617,41 +88443,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE06D6A3-4304-4C76-95C3-0ADCFD65E9F0}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -88888,15 +88719,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -88907,14 +88729,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03A8ECD-913A-4A30-A899-2603C999F3C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A03A8ECD-913A-4A30-A899-2603C999F3C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E55C22-B185-4E1E-AE64-6D9BE789F83C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA520652-393E-4FB8-A913-B3C66E09F05B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA520652-393E-4FB8-A913-B3C66E09F05B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E55C22-B185-4E1E-AE64-6D9BE789F83C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>